--- a/Code/Results/Cases/Case_2_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_69/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8283940765869886</v>
+        <v>0.3682365109457066</v>
       </c>
       <c r="C2">
-        <v>0.1090478520779961</v>
+        <v>0.1880299308281757</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05945902789263968</v>
+        <v>0.1338648012185644</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.2350473876014192</v>
+        <v>0.5150695343501397</v>
       </c>
       <c r="H2">
-        <v>0.2490916758638519</v>
+        <v>0.6732571109220231</v>
       </c>
       <c r="I2">
-        <v>0.2684618410892661</v>
+        <v>0.6853720635265041</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7091562693831719</v>
+        <v>0.219647156395439</v>
       </c>
       <c r="L2">
-        <v>0.1571133710510324</v>
+        <v>0.2042374536301637</v>
       </c>
       <c r="M2">
-        <v>0.1871316751662953</v>
+        <v>0.125005398884845</v>
       </c>
       <c r="N2">
-        <v>0.8382482527865491</v>
+        <v>1.605299223286924</v>
       </c>
       <c r="O2">
-        <v>0.9676482638080302</v>
+        <v>2.343441941604169</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7209334290616027</v>
+        <v>0.3361681457581085</v>
       </c>
       <c r="C3">
-        <v>0.1082587102304906</v>
+        <v>0.1880002686079862</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05824614344028589</v>
+        <v>0.1343473254654874</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.2362046594402898</v>
+        <v>0.5195849438250519</v>
       </c>
       <c r="H3">
-        <v>0.2543199303419996</v>
+        <v>0.6783491156038366</v>
       </c>
       <c r="I3">
-        <v>0.276087459716722</v>
+        <v>0.6918742816311152</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.621130776326865</v>
+        <v>0.1917319119618952</v>
       </c>
       <c r="L3">
-        <v>0.1430604965658375</v>
+        <v>0.2015601621517291</v>
       </c>
       <c r="M3">
-        <v>0.163813633195069</v>
+        <v>0.1186138377288337</v>
       </c>
       <c r="N3">
-        <v>0.8652585031603373</v>
+        <v>1.6180461576648</v>
       </c>
       <c r="O3">
-        <v>0.9807679045833595</v>
+        <v>2.363478332882252</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6549551436823151</v>
+        <v>0.3165203005324031</v>
       </c>
       <c r="C4">
-        <v>0.1078024685124177</v>
+        <v>0.1880007012059046</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05757802023680725</v>
+        <v>0.1346973587059033</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.2374517365726305</v>
+        <v>0.5226493962879601</v>
       </c>
       <c r="H4">
-        <v>0.257882322518455</v>
+        <v>0.6817101701297901</v>
       </c>
       <c r="I4">
-        <v>0.2812492495151631</v>
+        <v>0.6961591092297095</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5669788986337494</v>
+        <v>0.1745345390497448</v>
       </c>
       <c r="L4">
-        <v>0.1345765559863494</v>
+        <v>0.2000125261790302</v>
       </c>
       <c r="M4">
-        <v>0.1495458460629209</v>
+        <v>0.1147300052416789</v>
       </c>
       <c r="N4">
-        <v>0.8826984370710385</v>
+        <v>1.62634307936036</v>
       </c>
       <c r="O4">
-        <v>0.9906912620443222</v>
+        <v>2.376883961554597</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6280642865881987</v>
+        <v>0.308524937402666</v>
       </c>
       <c r="C5">
-        <v>0.1076236068954941</v>
+        <v>0.1880055929603976</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05732451650246695</v>
+        <v>0.134853547308234</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.2380899671399348</v>
+        <v>0.5239716159759666</v>
       </c>
       <c r="H5">
-        <v>0.2594205069851938</v>
+        <v>0.6831388725038039</v>
       </c>
       <c r="I5">
-        <v>0.2834701642471682</v>
+        <v>0.6979787947916467</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5448819263929749</v>
+        <v>0.1675125676940326</v>
       </c>
       <c r="L5">
-        <v>0.1311537985035116</v>
+        <v>0.19940614300954</v>
       </c>
       <c r="M5">
-        <v>0.1437425657385702</v>
+        <v>0.1131576670161181</v>
       </c>
       <c r="N5">
-        <v>0.8900164452037416</v>
+        <v>1.629842502787593</v>
       </c>
       <c r="O5">
-        <v>0.9951900820743447</v>
+        <v>2.382624434905054</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6235986897997918</v>
+        <v>0.3071980151383684</v>
       </c>
       <c r="C6">
-        <v>0.1075943320165713</v>
+        <v>0.1880066908296243</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05728354133085389</v>
+        <v>0.1348803013613171</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.238203659663661</v>
+        <v>0.5241956049018128</v>
       </c>
       <c r="H6">
-        <v>0.2596810849868234</v>
+        <v>0.68337967562843</v>
       </c>
       <c r="I6">
-        <v>0.2838459483576194</v>
+        <v>0.6982853978467567</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5412108517640206</v>
+        <v>0.1663457499306986</v>
       </c>
       <c r="L6">
-        <v>0.1305874846121142</v>
+        <v>0.1993069233907363</v>
       </c>
       <c r="M6">
-        <v>0.1427795545989632</v>
+        <v>0.1128972110703366</v>
       </c>
       <c r="N6">
-        <v>0.8912442293104235</v>
+        <v>1.630430731375029</v>
       </c>
       <c r="O6">
-        <v>0.995964167000011</v>
+        <v>2.383594405471754</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.654592507373934</v>
+        <v>0.3164124256589673</v>
       </c>
       <c r="C7">
-        <v>0.1078000278016304</v>
+        <v>0.1880007480483741</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0575745260761984</v>
+        <v>0.1346994102298211</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.2374598237666703</v>
+        <v>0.5226669308724397</v>
       </c>
       <c r="H7">
-        <v>0.2579027195557728</v>
+        <v>0.6817291989470107</v>
       </c>
       <c r="I7">
-        <v>0.2812787301204516</v>
+        <v>0.6961833521452814</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5666810156661484</v>
+        <v>0.1744398939070919</v>
       </c>
       <c r="L7">
-        <v>0.1345302581004404</v>
+        <v>0.2000042498067387</v>
       </c>
       <c r="M7">
-        <v>0.1494675385667961</v>
+        <v>0.1147087580219015</v>
       </c>
       <c r="N7">
-        <v>0.8827962807941212</v>
+        <v>1.626389794421215</v>
       </c>
       <c r="O7">
-        <v>0.990750111581292</v>
+        <v>2.376960255495661</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7913379487676764</v>
+        <v>0.3571709572535724</v>
       </c>
       <c r="C8">
-        <v>0.1087698487177953</v>
+        <v>0.1880158494782407</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0590246231157554</v>
+        <v>0.1340200343479996</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.2353320738464149</v>
+        <v>0.5165658553984258</v>
       </c>
       <c r="H8">
-        <v>0.2508199933662354</v>
+        <v>0.6749641954869716</v>
       </c>
       <c r="I8">
-        <v>0.2709896702669692</v>
+        <v>0.6875533612727622</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6788244261246348</v>
+        <v>0.2100341681906883</v>
       </c>
       <c r="L8">
-        <v>0.1522367986241164</v>
+        <v>0.203294405025396</v>
       </c>
       <c r="M8">
-        <v>0.1790803852589988</v>
+        <v>0.1227932431680507</v>
       </c>
       <c r="N8">
-        <v>0.8473813492979332</v>
+        <v>1.609596833092066</v>
       </c>
       <c r="O8">
-        <v>0.971775220021911</v>
+        <v>2.350121616488678</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.059767140195902</v>
+        <v>0.4374082487681505</v>
       </c>
       <c r="C9">
-        <v>0.1108990623522885</v>
+        <v>0.1881922690061799</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06249945818260194</v>
+        <v>0.133113164094441</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2356451085719016</v>
+        <v>0.5069179725809931</v>
       </c>
       <c r="H9">
-        <v>0.2398232964359295</v>
+        <v>0.6635560055635494</v>
       </c>
       <c r="I9">
-        <v>0.2547660215753318</v>
+        <v>0.6729481761455887</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8980929275891185</v>
+        <v>0.2793607285429118</v>
       </c>
       <c r="L9">
-        <v>0.1881946348952752</v>
+        <v>0.2105063983126527</v>
       </c>
       <c r="M9">
-        <v>0.237618916643342</v>
+        <v>0.1389637012504785</v>
       </c>
       <c r="N9">
-        <v>0.7849084260262487</v>
+        <v>1.580391865871647</v>
       </c>
       <c r="O9">
-        <v>0.9500758807084537</v>
+        <v>2.306237634919668</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.257531035039534</v>
+        <v>0.4965191528219464</v>
       </c>
       <c r="C10">
-        <v>0.11260671930755</v>
+        <v>0.1884099227649187</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06547130839647863</v>
+        <v>0.1327047050850609</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2389406176163646</v>
+        <v>0.5012414723902481</v>
       </c>
       <c r="H10">
-        <v>0.2336486911943183</v>
+        <v>0.6563029013634463</v>
       </c>
       <c r="I10">
-        <v>0.2454687986170683</v>
+        <v>0.6636279153419942</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.059077248395653</v>
+        <v>0.3299852556471592</v>
       </c>
       <c r="L10">
-        <v>0.2154962396687523</v>
+        <v>0.2162643825982684</v>
       </c>
       <c r="M10">
-        <v>0.2810250513290384</v>
+        <v>0.151031218603265</v>
       </c>
       <c r="N10">
-        <v>0.7435304414512416</v>
+        <v>1.561198826230296</v>
       </c>
       <c r="O10">
-        <v>0.9445872760591101</v>
+        <v>2.279319137662171</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.347709464540145</v>
+        <v>0.5234394109195648</v>
       </c>
       <c r="C11">
-        <v>0.1134158809756229</v>
+        <v>0.1885277526276852</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06692209039606567</v>
+        <v>0.1325745558555234</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.2411822657865201</v>
+        <v>0.4989656013227517</v>
       </c>
       <c r="H11">
-        <v>0.2312861002692443</v>
+        <v>0.6532474389059075</v>
       </c>
       <c r="I11">
-        <v>0.2418577301212252</v>
+        <v>0.6596934429599983</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.13235610910894</v>
+        <v>0.3529442501242386</v>
       </c>
       <c r="L11">
-        <v>0.2281386071146017</v>
+        <v>0.2189827757845677</v>
       </c>
       <c r="M11">
-        <v>0.3008845968154858</v>
+        <v>0.1565604545850405</v>
       </c>
       <c r="N11">
-        <v>0.7257502999130736</v>
+        <v>1.552957390621913</v>
       </c>
       <c r="O11">
-        <v>0.944591995966789</v>
+        <v>2.268227199265681</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.381896225104811</v>
+        <v>0.5336371760500072</v>
       </c>
       <c r="C12">
-        <v>0.1137270443791891</v>
+        <v>0.1885750515720304</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06748635818509641</v>
+        <v>0.1325332482719261</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.2421446355174623</v>
+        <v>0.4981478433929425</v>
       </c>
       <c r="H12">
-        <v>0.2304585197724407</v>
+        <v>0.6521254373326357</v>
       </c>
       <c r="I12">
-        <v>0.2405835417473092</v>
+        <v>0.6582474260577271</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.160117210511288</v>
+        <v>0.3616276474965616</v>
       </c>
       <c r="L12">
-        <v>0.2329605744104839</v>
+        <v>0.2200263203359896</v>
       </c>
       <c r="M12">
-        <v>0.3084235175207226</v>
+        <v>0.1586598053409887</v>
       </c>
       <c r="N12">
-        <v>0.7191729282508561</v>
+        <v>1.549906867831758</v>
       </c>
       <c r="O12">
-        <v>0.9449738787137534</v>
+        <v>2.264192688763487</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.374531676880451</v>
+        <v>0.5314407541912374</v>
       </c>
       <c r="C13">
-        <v>0.1136598167369627</v>
+        <v>0.1885647461584412</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06736415985396604</v>
+        <v>0.1325417902433017</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.2419322126709886</v>
+        <v>0.4983220023074963</v>
       </c>
       <c r="H13">
-        <v>0.2306337225852175</v>
+        <v>0.6523655230597996</v>
       </c>
       <c r="I13">
-        <v>0.240853742507273</v>
+        <v>0.6585569004366789</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.154137738577305</v>
+        <v>0.3597580061950794</v>
       </c>
       <c r="L13">
-        <v>0.2319204975943165</v>
+        <v>0.2198009466433604</v>
       </c>
       <c r="M13">
-        <v>0.30679901550252</v>
+        <v>0.1582074282540233</v>
       </c>
       <c r="N13">
-        <v>0.7205824709615811</v>
+        <v>1.550560725645823</v>
       </c>
       <c r="O13">
-        <v>0.9448743923934302</v>
+        <v>2.265054221820208</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.350521221978596</v>
+        <v>0.5242783182460755</v>
       </c>
       <c r="C14">
-        <v>0.1134413847361913</v>
+        <v>0.1885315903947671</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0669682107137497</v>
+        <v>0.1325709977365364</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2412591258331744</v>
+        <v>0.4988974407266369</v>
       </c>
       <c r="H14">
-        <v>0.2312166530939095</v>
+        <v>0.6531544292939486</v>
       </c>
       <c r="I14">
-        <v>0.2417510074849289</v>
+        <v>0.6595735989714768</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.134639759516602</v>
+        <v>0.3536588556045217</v>
       </c>
       <c r="L14">
-        <v>0.2285346052003803</v>
+        <v>0.2190683458275799</v>
       </c>
       <c r="M14">
-        <v>0.3015044438763397</v>
+        <v>0.1567330591072462</v>
       </c>
       <c r="N14">
-        <v>0.7252060243311718</v>
+        <v>1.552705013152512</v>
       </c>
       <c r="O14">
-        <v>0.9446156753899118</v>
+        <v>2.267891956008143</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.335819317132007</v>
+        <v>0.5198915729150144</v>
       </c>
       <c r="C15">
-        <v>0.1133082107725727</v>
+        <v>0.1885116296701099</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06672763974174956</v>
+        <v>0.1325899262266645</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.2408618285720721</v>
+        <v>0.4992556520988529</v>
       </c>
       <c r="H15">
-        <v>0.2315825398355145</v>
+        <v>0.6536422182694537</v>
       </c>
       <c r="I15">
-        <v>0.2423128838909392</v>
+        <v>0.6602020701301718</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.122698410039987</v>
+        <v>0.349921542914359</v>
       </c>
       <c r="L15">
-        <v>0.2264652292898006</v>
+        <v>0.2186214463048799</v>
       </c>
       <c r="M15">
-        <v>0.2982638471048773</v>
+        <v>0.1558306835080856</v>
       </c>
       <c r="N15">
-        <v>0.7280585170688738</v>
+        <v>1.554027608160887</v>
       </c>
       <c r="O15">
-        <v>0.9445073268388455</v>
+        <v>2.269651734924267</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.251642593332264</v>
+        <v>0.4947604005855055</v>
       </c>
       <c r="C16">
-        <v>0.112554497862611</v>
+        <v>0.1884025986898905</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06537854254283815</v>
+        <v>0.1327143283865269</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.2388096293801851</v>
+        <v>0.5013963718945718</v>
       </c>
       <c r="H16">
-        <v>0.2338123172370103</v>
+        <v>0.6565074886313127</v>
       </c>
       <c r="I16">
-        <v>0.2457175976173787</v>
+        <v>0.6638911846026545</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.054289681208559</v>
+        <v>0.3284833678762595</v>
       </c>
       <c r="L16">
-        <v>0.2146747279110599</v>
+        <v>0.2160887142744059</v>
       </c>
       <c r="M16">
-        <v>0.279729657063335</v>
+        <v>0.1506706549454648</v>
       </c>
       <c r="N16">
-        <v>0.7447138749510955</v>
+        <v>1.561747268871478</v>
       </c>
       <c r="O16">
-        <v>0.9446390221701364</v>
+        <v>2.280067223617195</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.200062906447329</v>
+        <v>0.4793505132753353</v>
       </c>
       <c r="C17">
-        <v>0.1121004712409359</v>
+        <v>0.1883405124455564</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06457670591456832</v>
+        <v>0.1328048820570373</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.237745525963696</v>
+        <v>0.5027881139127999</v>
       </c>
       <c r="H17">
-        <v>0.235296534518568</v>
+        <v>0.6583276986494369</v>
       </c>
       <c r="I17">
-        <v>0.2479676538117843</v>
+        <v>0.6662325270795897</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.012338674026068</v>
+        <v>0.3153133245411084</v>
       </c>
       <c r="L17">
-        <v>0.2075004547380956</v>
+        <v>0.214560267758614</v>
       </c>
       <c r="M17">
-        <v>0.2683901992446103</v>
+        <v>0.147515193217032</v>
       </c>
       <c r="N17">
-        <v>0.7552024176074994</v>
+        <v>1.56660837183427</v>
       </c>
       <c r="O17">
-        <v>0.9453746752155467</v>
+        <v>2.286752140120484</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.170415374029545</v>
+        <v>0.4704900595024242</v>
       </c>
       <c r="C18">
-        <v>0.1118423645075737</v>
+        <v>0.1883065749134545</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06412477508366266</v>
+        <v>0.1328622068015086</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2372029461131007</v>
+        <v>0.50361744638235</v>
       </c>
       <c r="H18">
-        <v>0.2361920388024359</v>
+        <v>0.6593976059161974</v>
       </c>
       <c r="I18">
-        <v>0.2493197502749069</v>
+        <v>0.6676079490492342</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9882135799164757</v>
+        <v>0.3077316750065506</v>
       </c>
       <c r="L18">
-        <v>0.2033948065028568</v>
+        <v>0.2136904752627657</v>
       </c>
       <c r="M18">
-        <v>0.2618786243721587</v>
+        <v>0.1457039974782468</v>
       </c>
       <c r="N18">
-        <v>0.7613329612678754</v>
+        <v>1.569450434812616</v>
       </c>
       <c r="O18">
-        <v>0.9460319751929234</v>
+        <v>2.290705698419856</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.160380405059641</v>
+        <v>0.4674905832832508</v>
       </c>
       <c r="C19">
-        <v>0.1117554927550586</v>
+        <v>0.1882953895470436</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06397333031721253</v>
+        <v>0.1328825168822334</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2370309689888614</v>
+        <v>0.5039031971041865</v>
       </c>
       <c r="H19">
-        <v>0.2365023379737181</v>
+        <v>0.6597638049687333</v>
       </c>
       <c r="I19">
-        <v>0.2497873667585289</v>
+        <v>0.6680785809122725</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9800457708363695</v>
+        <v>0.3051635441005089</v>
       </c>
       <c r="L19">
-        <v>0.2020082021964527</v>
+        <v>0.2133975837495683</v>
       </c>
       <c r="M19">
-        <v>0.2596756704563745</v>
+        <v>0.1450914051770589</v>
       </c>
       <c r="N19">
-        <v>0.76342529074034</v>
+        <v>1.570420625840793</v>
       </c>
       <c r="O19">
-        <v>0.9462941413373329</v>
+        <v>2.292062955404532</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.205551557998973</v>
+        <v>0.4809906265978157</v>
       </c>
       <c r="C20">
-        <v>0.1121484880932684</v>
+        <v>0.1883469383449494</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0646610992067771</v>
+        <v>0.1327947002694074</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2378515646416375</v>
+        <v>0.5026369758018276</v>
       </c>
       <c r="H20">
-        <v>0.2351341880855173</v>
+        <v>0.6581315571971587</v>
       </c>
       <c r="I20">
-        <v>0.2477221058954484</v>
+        <v>0.6659803125148329</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.016803977308143</v>
+        <v>0.316715984111994</v>
       </c>
       <c r="L20">
-        <v>0.2082619972059234</v>
+        <v>0.2147220086263673</v>
       </c>
       <c r="M20">
-        <v>0.2695961934775788</v>
+        <v>0.1478507112983358</v>
       </c>
       <c r="N20">
-        <v>0.7540757314732325</v>
+        <v>1.566086130002766</v>
       </c>
       <c r="O20">
-        <v>0.9452719835949921</v>
+        <v>2.286029283326968</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.357572578907707</v>
+        <v>0.5263820060892783</v>
       </c>
       <c r="C21">
-        <v>0.1135054137028249</v>
+        <v>0.1885412565422087</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06708410101486351</v>
+        <v>0.1325622025057349</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2414536917689603</v>
+        <v>0.4987272245601062</v>
       </c>
       <c r="H21">
-        <v>0.2310435877446722</v>
+        <v>0.652921757968258</v>
       </c>
       <c r="I21">
-        <v>0.2414848927154338</v>
+        <v>0.6592737792350931</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.140366418926533</v>
+        <v>0.3554506181597503</v>
       </c>
       <c r="L21">
-        <v>0.2295281644633178</v>
+        <v>0.2192831452405244</v>
       </c>
       <c r="M21">
-        <v>0.3030590667673891</v>
+        <v>0.1571659676943113</v>
       </c>
       <c r="N21">
-        <v>0.7238437060372505</v>
+        <v>1.552073275746601</v>
       </c>
       <c r="O21">
-        <v>0.9446811833266935</v>
+        <v>2.267053946609039</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.457153178498658</v>
+        <v>0.5560688210340174</v>
       </c>
       <c r="C22">
-        <v>0.1144199921796982</v>
+        <v>0.1886838596438665</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06875478625821074</v>
+        <v>0.1324567359645421</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.2444728783364596</v>
+        <v>0.4964288231468288</v>
       </c>
       <c r="H22">
-        <v>0.2287626096846438</v>
+        <v>0.6497210438793886</v>
       </c>
       <c r="I22">
-        <v>0.2379541892446788</v>
+        <v>0.6551464392240298</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.221194234148641</v>
+        <v>0.3807034562231877</v>
       </c>
       <c r="L22">
-        <v>0.2436296587972606</v>
+        <v>0.2223465324312883</v>
       </c>
       <c r="M22">
-        <v>0.3250381656684951</v>
+        <v>0.1632862988813244</v>
       </c>
       <c r="N22">
-        <v>0.7049949917602021</v>
+        <v>1.543324971425335</v>
       </c>
       <c r="O22">
-        <v>0.9465208003376233</v>
+        <v>2.255618633049494</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.403981920417294</v>
+        <v>0.5402227343385562</v>
       </c>
       <c r="C23">
-        <v>0.1139292893950099</v>
+        <v>0.1886063306108454</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06785490938783667</v>
+        <v>0.1325087810168561</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.242798315185631</v>
+        <v>0.497632020027531</v>
       </c>
       <c r="H23">
-        <v>0.229943097623007</v>
+        <v>0.6514106590985165</v>
       </c>
       <c r="I23">
-        <v>0.2397871717402218</v>
+        <v>0.6573258848361228</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.178046403484473</v>
+        <v>0.3672314431091763</v>
       </c>
       <c r="L23">
-        <v>0.2360839890744444</v>
+        <v>0.2207040354238501</v>
       </c>
       <c r="M23">
-        <v>0.3132967668884987</v>
+        <v>0.1600168610014876</v>
       </c>
       <c r="N23">
-        <v>0.7149697420053229</v>
+        <v>1.547956622325621</v>
       </c>
       <c r="O23">
-        <v>0.9453282854665872</v>
+        <v>2.261633502267586</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.203070119502087</v>
+        <v>0.480249134748675</v>
       </c>
       <c r="C24">
-        <v>0.1121267705891071</v>
+        <v>0.1883440277217829</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06462291684316313</v>
+        <v>0.1327992870563293</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2378034095574293</v>
+        <v>0.5027052143831767</v>
       </c>
       <c r="H24">
-        <v>0.2352074536575728</v>
+        <v>0.6582201597170894</v>
       </c>
       <c r="I24">
-        <v>0.2478329361908607</v>
+        <v>0.6660942472860611</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.014785235588647</v>
+        <v>0.3160818728764525</v>
       </c>
       <c r="L24">
-        <v>0.2079176450629348</v>
+        <v>0.214648857751996</v>
       </c>
       <c r="M24">
-        <v>0.2690509398798504</v>
+        <v>0.1476990144628907</v>
       </c>
       <c r="N24">
-        <v>0.7545847935338514</v>
+        <v>1.566322088038412</v>
       </c>
       <c r="O24">
-        <v>0.9453176820165794</v>
+        <v>2.286355743269652</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9870826329559748</v>
+        <v>0.4156716883908871</v>
       </c>
       <c r="C25">
-        <v>0.1102982515242772</v>
+        <v>0.1881289775726103</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0614884172202359</v>
+        <v>0.1333131119606215</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2350470154287478</v>
+        <v>0.5092800319689914</v>
       </c>
       <c r="H25">
-        <v>0.242474366710546</v>
+        <v>0.6664437480636138</v>
       </c>
       <c r="I25">
-        <v>0.2587104144071724</v>
+        <v>0.6766514041382976</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8388160711430999</v>
+        <v>0.2606589324958009</v>
       </c>
       <c r="L25">
-        <v>0.1783217653962197</v>
+        <v>0.208474410146124</v>
       </c>
       <c r="M25">
-        <v>0.2217213454104119</v>
+        <v>0.1345558725811351</v>
       </c>
       <c r="N25">
-        <v>0.8010353190999346</v>
+        <v>1.587894486345402</v>
       </c>
       <c r="O25">
-        <v>0.9541855189414719</v>
+        <v>2.31717397553777</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_69/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3682365109457066</v>
+        <v>0.8283940765869033</v>
       </c>
       <c r="C2">
-        <v>0.1880299308281757</v>
+        <v>0.1090478520777722</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1338648012185644</v>
+        <v>0.05945902789266988</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5150695343501397</v>
+        <v>0.2350473876013623</v>
       </c>
       <c r="H2">
-        <v>0.6732571109220231</v>
+        <v>0.2490916758638519</v>
       </c>
       <c r="I2">
-        <v>0.6853720635265041</v>
+        <v>0.2684618410892732</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.219647156395439</v>
+        <v>0.7091562693832287</v>
       </c>
       <c r="L2">
-        <v>0.2042374536301637</v>
+        <v>0.1571133710510324</v>
       </c>
       <c r="M2">
-        <v>0.125005398884845</v>
+        <v>0.1871316751662953</v>
       </c>
       <c r="N2">
-        <v>1.605299223286924</v>
+        <v>0.8382482527865456</v>
       </c>
       <c r="O2">
-        <v>2.343441941604169</v>
+        <v>0.9676482638080728</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3361681457581085</v>
+        <v>0.7209334290616312</v>
       </c>
       <c r="C3">
-        <v>0.1880002686079862</v>
+        <v>0.1082587102307748</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1343473254654874</v>
+        <v>0.05824614344028589</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.5195849438250519</v>
+        <v>0.2362046594402898</v>
       </c>
       <c r="H3">
-        <v>0.6783491156038366</v>
+        <v>0.2543199303419996</v>
       </c>
       <c r="I3">
-        <v>0.6918742816311152</v>
+        <v>0.2760874597167184</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1917319119618952</v>
+        <v>0.621130776326865</v>
       </c>
       <c r="L3">
-        <v>0.2015601621517291</v>
+        <v>0.143060496565802</v>
       </c>
       <c r="M3">
-        <v>0.1186138377288337</v>
+        <v>0.163813633195069</v>
       </c>
       <c r="N3">
-        <v>1.6180461576648</v>
+        <v>0.8652585031603373</v>
       </c>
       <c r="O3">
-        <v>2.363478332882252</v>
+        <v>0.9807679045833453</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3165203005324031</v>
+        <v>0.6549551436822014</v>
       </c>
       <c r="C4">
-        <v>0.1880007012059046</v>
+        <v>0.107802468512407</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1346973587059033</v>
+        <v>0.05757802023680725</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5226493962879601</v>
+        <v>0.2374517365726447</v>
       </c>
       <c r="H4">
-        <v>0.6817101701297901</v>
+        <v>0.257882322518455</v>
       </c>
       <c r="I4">
-        <v>0.6961591092297095</v>
+        <v>0.2812492495151808</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1745345390497448</v>
+        <v>0.5669788986337494</v>
       </c>
       <c r="L4">
-        <v>0.2000125261790302</v>
+        <v>0.1345765559863921</v>
       </c>
       <c r="M4">
-        <v>0.1147300052416789</v>
+        <v>0.1495458460628996</v>
       </c>
       <c r="N4">
-        <v>1.62634307936036</v>
+        <v>0.882698437071042</v>
       </c>
       <c r="O4">
-        <v>2.376883961554597</v>
+        <v>0.9906912620443364</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.308524937402666</v>
+        <v>0.6280642865880282</v>
       </c>
       <c r="C5">
-        <v>0.1880055929603976</v>
+        <v>0.1076236068955474</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.134853547308234</v>
+        <v>0.05732451650250603</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.5239716159759666</v>
+        <v>0.238089967140013</v>
       </c>
       <c r="H5">
-        <v>0.6831388725038039</v>
+        <v>0.2594205069850872</v>
       </c>
       <c r="I5">
-        <v>0.6979787947916467</v>
+        <v>0.2834701642471735</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1675125676940326</v>
+        <v>0.5448819263930176</v>
       </c>
       <c r="L5">
-        <v>0.19940614300954</v>
+        <v>0.1311537985035471</v>
       </c>
       <c r="M5">
-        <v>0.1131576670161181</v>
+        <v>0.1437425657385845</v>
       </c>
       <c r="N5">
-        <v>1.629842502787593</v>
+        <v>0.8900164452037629</v>
       </c>
       <c r="O5">
-        <v>2.382624434905054</v>
+        <v>0.9951900820743873</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3071980151383684</v>
+        <v>0.6235986897997634</v>
       </c>
       <c r="C6">
-        <v>0.1880066908296243</v>
+        <v>0.1075943320163368</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1348803013613171</v>
+        <v>0.05728354133088054</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.5241956049018128</v>
+        <v>0.238203659663597</v>
       </c>
       <c r="H6">
-        <v>0.68337967562843</v>
+        <v>0.2596810849868092</v>
       </c>
       <c r="I6">
-        <v>0.6982853978467567</v>
+        <v>0.2838459483576194</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1663457499306986</v>
+        <v>0.5412108517640064</v>
       </c>
       <c r="L6">
-        <v>0.1993069233907363</v>
+        <v>0.1305874846120929</v>
       </c>
       <c r="M6">
-        <v>0.1128972110703366</v>
+        <v>0.1427795545989881</v>
       </c>
       <c r="N6">
-        <v>1.630430731375029</v>
+        <v>0.8912442293104164</v>
       </c>
       <c r="O6">
-        <v>2.383594405471754</v>
+        <v>0.9959641669999826</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3164124256589673</v>
+        <v>0.6545925073739056</v>
       </c>
       <c r="C7">
-        <v>0.1880007480483741</v>
+        <v>0.1078000278016873</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1346994102298211</v>
+        <v>0.05757452607617175</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5226669308724397</v>
+        <v>0.2374598237667271</v>
       </c>
       <c r="H7">
-        <v>0.6817291989470107</v>
+        <v>0.2579027195557728</v>
       </c>
       <c r="I7">
-        <v>0.6961833521452814</v>
+        <v>0.2812787301204338</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1744398939070919</v>
+        <v>0.5666810156662194</v>
       </c>
       <c r="L7">
-        <v>0.2000042498067387</v>
+        <v>0.134530258100547</v>
       </c>
       <c r="M7">
-        <v>0.1147087580219015</v>
+        <v>0.1494675385667925</v>
       </c>
       <c r="N7">
-        <v>1.626389794421215</v>
+        <v>0.8827962807941141</v>
       </c>
       <c r="O7">
-        <v>2.376960255495661</v>
+        <v>0.9907501115812209</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3571709572535724</v>
+        <v>0.7913379487676764</v>
       </c>
       <c r="C8">
-        <v>0.1880158494782407</v>
+        <v>0.1087698487175146</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1340200343479996</v>
+        <v>0.05902462311575363</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.5165658553984258</v>
+        <v>0.2353320738464291</v>
       </c>
       <c r="H8">
-        <v>0.6749641954869716</v>
+        <v>0.2508199933663491</v>
       </c>
       <c r="I8">
-        <v>0.6875533612727622</v>
+        <v>0.2709896702669852</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2100341681906883</v>
+        <v>0.6788244261246348</v>
       </c>
       <c r="L8">
-        <v>0.203294405025396</v>
+        <v>0.1522367986241377</v>
       </c>
       <c r="M8">
-        <v>0.1227932431680507</v>
+        <v>0.1790803852589917</v>
       </c>
       <c r="N8">
-        <v>1.609596833092066</v>
+        <v>0.8473813492979403</v>
       </c>
       <c r="O8">
-        <v>2.350121616488678</v>
+        <v>0.9717752200219252</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4374082487681505</v>
+        <v>1.059767140196072</v>
       </c>
       <c r="C9">
-        <v>0.1881922690061799</v>
+        <v>0.1108990623522317</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.133113164094441</v>
+        <v>0.06249945818264635</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.5069179725809931</v>
+        <v>0.2356451085719087</v>
       </c>
       <c r="H9">
-        <v>0.6635560055635494</v>
+        <v>0.2398232964360432</v>
       </c>
       <c r="I9">
-        <v>0.6729481761455887</v>
+        <v>0.254766021575314</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2793607285429118</v>
+        <v>0.8980929275892606</v>
       </c>
       <c r="L9">
-        <v>0.2105063983126527</v>
+        <v>0.1881946348952752</v>
       </c>
       <c r="M9">
-        <v>0.1389637012504785</v>
+        <v>0.2376189166433562</v>
       </c>
       <c r="N9">
-        <v>1.580391865871647</v>
+        <v>0.7849084260261776</v>
       </c>
       <c r="O9">
-        <v>2.306237634919668</v>
+        <v>0.9500758807084395</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4965191528219464</v>
+        <v>1.257531035039392</v>
       </c>
       <c r="C10">
-        <v>0.1884099227649187</v>
+        <v>0.1126067193073297</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1327047050850609</v>
+        <v>0.06547130839646087</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.5012414723902481</v>
+        <v>0.2389406176164215</v>
       </c>
       <c r="H10">
-        <v>0.6563029013634463</v>
+        <v>0.2336486911943183</v>
       </c>
       <c r="I10">
-        <v>0.6636279153419942</v>
+        <v>0.2454687986170683</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3299852556471592</v>
+        <v>1.059077248395539</v>
       </c>
       <c r="L10">
-        <v>0.2162643825982684</v>
+        <v>0.2154962396687807</v>
       </c>
       <c r="M10">
-        <v>0.151031218603265</v>
+        <v>0.2810250513290313</v>
       </c>
       <c r="N10">
-        <v>1.561198826230296</v>
+        <v>0.7435304414512345</v>
       </c>
       <c r="O10">
-        <v>2.279319137662171</v>
+        <v>0.9445872760591101</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5234394109195648</v>
+        <v>1.34770946454023</v>
       </c>
       <c r="C11">
-        <v>0.1885277526276852</v>
+        <v>0.113415880975154</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1325745558555234</v>
+        <v>0.06692209039606212</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.4989656013227517</v>
+        <v>0.241182265786513</v>
       </c>
       <c r="H11">
-        <v>0.6532474389059075</v>
+        <v>0.231286100269358</v>
       </c>
       <c r="I11">
-        <v>0.6596934429599983</v>
+        <v>0.2418577301212252</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3529442501242386</v>
+        <v>1.132356109108798</v>
       </c>
       <c r="L11">
-        <v>0.2189827757845677</v>
+        <v>0.2281386071146159</v>
       </c>
       <c r="M11">
-        <v>0.1565604545850405</v>
+        <v>0.3008845968154787</v>
       </c>
       <c r="N11">
-        <v>1.552957390621913</v>
+        <v>0.7257502999131376</v>
       </c>
       <c r="O11">
-        <v>2.268227199265681</v>
+        <v>0.9445919959667748</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5336371760500072</v>
+        <v>1.381896225104811</v>
       </c>
       <c r="C12">
-        <v>0.1885750515720304</v>
+        <v>0.113727044379182</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1325332482719261</v>
+        <v>0.06748635818509641</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.4981478433929425</v>
+        <v>0.2421446355174197</v>
       </c>
       <c r="H12">
-        <v>0.6521254373326357</v>
+        <v>0.2304585197724407</v>
       </c>
       <c r="I12">
-        <v>0.6582474260577271</v>
+        <v>0.2405835417473163</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3616276474965616</v>
+        <v>1.160117210511316</v>
       </c>
       <c r="L12">
-        <v>0.2200263203359896</v>
+        <v>0.2329605744104555</v>
       </c>
       <c r="M12">
-        <v>0.1586598053409887</v>
+        <v>0.3084235175207297</v>
       </c>
       <c r="N12">
-        <v>1.549906867831758</v>
+        <v>0.7191729282508561</v>
       </c>
       <c r="O12">
-        <v>2.264192688763487</v>
+        <v>0.9449738787138102</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5314407541912374</v>
+        <v>1.374531676880338</v>
       </c>
       <c r="C13">
-        <v>0.1885647461584412</v>
+        <v>0.1136598167365079</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1325417902433017</v>
+        <v>0.06736415985394117</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.4983220023074963</v>
+        <v>0.2419322126709673</v>
       </c>
       <c r="H13">
-        <v>0.6523655230597996</v>
+        <v>0.2306337225852175</v>
       </c>
       <c r="I13">
-        <v>0.6585569004366789</v>
+        <v>0.240853742507273</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3597580061950794</v>
+        <v>1.154137738577333</v>
       </c>
       <c r="L13">
-        <v>0.2198009466433604</v>
+        <v>0.2319204975944444</v>
       </c>
       <c r="M13">
-        <v>0.1582074282540233</v>
+        <v>0.3067990155025129</v>
       </c>
       <c r="N13">
-        <v>1.550560725645823</v>
+        <v>0.7205824709615243</v>
       </c>
       <c r="O13">
-        <v>2.265054221820208</v>
+        <v>0.944874392393416</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5242783182460755</v>
+        <v>1.350521221978624</v>
       </c>
       <c r="C14">
-        <v>0.1885315903947671</v>
+        <v>0.1134413847358928</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1325709977365364</v>
+        <v>0.06696821071376746</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.4988974407266369</v>
+        <v>0.2412591258332313</v>
       </c>
       <c r="H14">
-        <v>0.6531544292939486</v>
+        <v>0.2312166530939024</v>
       </c>
       <c r="I14">
-        <v>0.6595735989714768</v>
+        <v>0.2417510074849218</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3536588556045217</v>
+        <v>1.134639759516574</v>
       </c>
       <c r="L14">
-        <v>0.2190683458275799</v>
+        <v>0.2285346052003803</v>
       </c>
       <c r="M14">
-        <v>0.1567330591072462</v>
+        <v>0.3015044438763397</v>
       </c>
       <c r="N14">
-        <v>1.552705013152512</v>
+        <v>0.7252060243311078</v>
       </c>
       <c r="O14">
-        <v>2.267891956008143</v>
+        <v>0.9446156753898975</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5198915729150144</v>
+        <v>1.335819317131836</v>
       </c>
       <c r="C15">
-        <v>0.1885116296701099</v>
+        <v>0.1133082107725727</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1325899262266645</v>
+        <v>0.06672763974175666</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.4992556520988529</v>
+        <v>0.2408618285719726</v>
       </c>
       <c r="H15">
-        <v>0.6536422182694537</v>
+        <v>0.2315825398356353</v>
       </c>
       <c r="I15">
-        <v>0.6602020701301718</v>
+        <v>0.2423128838909427</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.349921542914359</v>
+        <v>1.122698410040044</v>
       </c>
       <c r="L15">
-        <v>0.2186214463048799</v>
+        <v>0.2264652292898148</v>
       </c>
       <c r="M15">
-        <v>0.1558306835080856</v>
+        <v>0.2982638471048773</v>
       </c>
       <c r="N15">
-        <v>1.554027608160887</v>
+        <v>0.7280585170688312</v>
       </c>
       <c r="O15">
-        <v>2.269651734924267</v>
+        <v>0.9445073268389024</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4947604005855055</v>
+        <v>1.251642593332377</v>
       </c>
       <c r="C16">
-        <v>0.1884025986898905</v>
+        <v>0.1125544978628241</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1327143283865269</v>
+        <v>0.06537854254286302</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.5013963718945718</v>
+        <v>0.2388096293803059</v>
       </c>
       <c r="H16">
-        <v>0.6565074886313127</v>
+        <v>0.233812317237124</v>
       </c>
       <c r="I16">
-        <v>0.6638911846026545</v>
+        <v>0.2457175976173787</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3284833678762595</v>
+        <v>1.054289681208473</v>
       </c>
       <c r="L16">
-        <v>0.2160887142744059</v>
+        <v>0.2146747279111025</v>
       </c>
       <c r="M16">
-        <v>0.1506706549454648</v>
+        <v>0.2797296570633421</v>
       </c>
       <c r="N16">
-        <v>1.561747268871478</v>
+        <v>0.7447138749510884</v>
       </c>
       <c r="O16">
-        <v>2.280067223617195</v>
+        <v>0.9446390221701932</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4793505132753353</v>
+        <v>1.200062906447187</v>
       </c>
       <c r="C17">
-        <v>0.1883405124455564</v>
+        <v>0.1121004712412201</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1328048820570373</v>
+        <v>0.06457670591457898</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.5027881139127999</v>
+        <v>0.2377455259637742</v>
       </c>
       <c r="H17">
-        <v>0.6583276986494369</v>
+        <v>0.235296534518568</v>
       </c>
       <c r="I17">
-        <v>0.6662325270795897</v>
+        <v>0.2479676538117772</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3153133245411084</v>
+        <v>1.01233867402604</v>
       </c>
       <c r="L17">
-        <v>0.214560267758614</v>
+        <v>0.2075004547381383</v>
       </c>
       <c r="M17">
-        <v>0.147515193217032</v>
+        <v>0.268390199244589</v>
       </c>
       <c r="N17">
-        <v>1.56660837183427</v>
+        <v>0.7552024176074958</v>
       </c>
       <c r="O17">
-        <v>2.286752140120484</v>
+        <v>0.9453746752155467</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4704900595024242</v>
+        <v>1.170415374029545</v>
       </c>
       <c r="C18">
-        <v>0.1883065749134545</v>
+        <v>0.1118423645078082</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1328622068015086</v>
+        <v>0.06412477508362713</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.50361744638235</v>
+        <v>0.2372029461130509</v>
       </c>
       <c r="H18">
-        <v>0.6593976059161974</v>
+        <v>0.2361920388024359</v>
       </c>
       <c r="I18">
-        <v>0.6676079490492342</v>
+        <v>0.2493197502749069</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3077316750065506</v>
+        <v>0.9882135799163621</v>
       </c>
       <c r="L18">
-        <v>0.2136904752627657</v>
+        <v>0.2033948065029563</v>
       </c>
       <c r="M18">
-        <v>0.1457039974782468</v>
+        <v>0.2618786243721551</v>
       </c>
       <c r="N18">
-        <v>1.569450434812616</v>
+        <v>0.7613329612678683</v>
       </c>
       <c r="O18">
-        <v>2.290705698419856</v>
+        <v>0.9460319751929234</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4674905832832508</v>
+        <v>1.160380405059612</v>
       </c>
       <c r="C19">
-        <v>0.1882953895470436</v>
+        <v>0.1117554927550515</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1328825168822334</v>
+        <v>0.06397333031722674</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.5039031971041865</v>
+        <v>0.2370309689889254</v>
       </c>
       <c r="H19">
-        <v>0.6597638049687333</v>
+        <v>0.2365023379737181</v>
       </c>
       <c r="I19">
-        <v>0.6680785809122725</v>
+        <v>0.2497873667585466</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3051635441005089</v>
+        <v>0.9800457708363695</v>
       </c>
       <c r="L19">
-        <v>0.2133975837495683</v>
+        <v>0.2020082021964527</v>
       </c>
       <c r="M19">
-        <v>0.1450914051770589</v>
+        <v>0.2596756704563745</v>
       </c>
       <c r="N19">
-        <v>1.570420625840793</v>
+        <v>0.7634252907403472</v>
       </c>
       <c r="O19">
-        <v>2.292062955404532</v>
+        <v>0.9462941413373471</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4809906265978157</v>
+        <v>1.205551557999087</v>
       </c>
       <c r="C20">
-        <v>0.1883469383449494</v>
+        <v>0.1121484880932613</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1327947002694074</v>
+        <v>0.06466109920676288</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.5026369758018276</v>
+        <v>0.2378515646416375</v>
       </c>
       <c r="H20">
-        <v>0.6581315571971587</v>
+        <v>0.2351341880853965</v>
       </c>
       <c r="I20">
-        <v>0.6659803125148329</v>
+        <v>0.2477221058954449</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.316715984111994</v>
+        <v>1.016803977308228</v>
       </c>
       <c r="L20">
-        <v>0.2147220086263673</v>
+        <v>0.208261997205895</v>
       </c>
       <c r="M20">
-        <v>0.1478507112983358</v>
+        <v>0.2695961934775823</v>
       </c>
       <c r="N20">
-        <v>1.566086130002766</v>
+        <v>0.754075731473236</v>
       </c>
       <c r="O20">
-        <v>2.286029283326968</v>
+        <v>0.9452719835950489</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5263820060892783</v>
+        <v>1.357572578907735</v>
       </c>
       <c r="C21">
-        <v>0.1885412565422087</v>
+        <v>0.1135054137025833</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1325622025057349</v>
+        <v>0.06708410101486706</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.4987272245601062</v>
+        <v>0.2414536917690739</v>
       </c>
       <c r="H21">
-        <v>0.652921757968258</v>
+        <v>0.2310435877446722</v>
       </c>
       <c r="I21">
-        <v>0.6592737792350931</v>
+        <v>0.2414848927154338</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3554506181597503</v>
+        <v>1.140366418926476</v>
       </c>
       <c r="L21">
-        <v>0.2192831452405244</v>
+        <v>0.2295281644633178</v>
       </c>
       <c r="M21">
-        <v>0.1571659676943113</v>
+        <v>0.3030590667673891</v>
       </c>
       <c r="N21">
-        <v>1.552073275746601</v>
+        <v>0.7238437060372007</v>
       </c>
       <c r="O21">
-        <v>2.267053946609039</v>
+        <v>0.9446811833266366</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5560688210340174</v>
+        <v>1.457153178498771</v>
       </c>
       <c r="C22">
-        <v>0.1886838596438665</v>
+        <v>0.1144199921799824</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1324567359645421</v>
+        <v>0.06875478625822851</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.4964288231468288</v>
+        <v>0.2444728783364596</v>
       </c>
       <c r="H22">
-        <v>0.6497210438793886</v>
+        <v>0.2287626096846438</v>
       </c>
       <c r="I22">
-        <v>0.6551464392240298</v>
+        <v>0.2379541892446788</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3807034562231877</v>
+        <v>1.221194234148584</v>
       </c>
       <c r="L22">
-        <v>0.2223465324312883</v>
+        <v>0.2436296587971185</v>
       </c>
       <c r="M22">
-        <v>0.1632862988813244</v>
+        <v>0.3250381656685093</v>
       </c>
       <c r="N22">
-        <v>1.543324971425335</v>
+        <v>0.7049949917602447</v>
       </c>
       <c r="O22">
-        <v>2.255618633049494</v>
+        <v>0.9465208003375523</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5402227343385562</v>
+        <v>1.403981920417209</v>
       </c>
       <c r="C23">
-        <v>0.1886063306108454</v>
+        <v>0.1139292893949317</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1325087810168561</v>
+        <v>0.06785490938786509</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.497632020027531</v>
+        <v>0.2427983151856381</v>
       </c>
       <c r="H23">
-        <v>0.6514106590985165</v>
+        <v>0.2299430976231065</v>
       </c>
       <c r="I23">
-        <v>0.6573258848361228</v>
+        <v>0.2397871717402325</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3672314431091763</v>
+        <v>1.178046403484331</v>
       </c>
       <c r="L23">
-        <v>0.2207040354238501</v>
+        <v>0.2360839890745012</v>
       </c>
       <c r="M23">
-        <v>0.1600168610014876</v>
+        <v>0.3132967668884916</v>
       </c>
       <c r="N23">
-        <v>1.547956622325621</v>
+        <v>0.7149697420053727</v>
       </c>
       <c r="O23">
-        <v>2.261633502267586</v>
+        <v>0.9453282854665872</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.480249134748675</v>
+        <v>1.203070119502115</v>
       </c>
       <c r="C24">
-        <v>0.1883440277217829</v>
+        <v>0.1121267705893416</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1327992870563293</v>
+        <v>0.06462291684314891</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.5027052143831767</v>
+        <v>0.2378034095574364</v>
       </c>
       <c r="H24">
-        <v>0.6582201597170894</v>
+        <v>0.2352074536575728</v>
       </c>
       <c r="I24">
-        <v>0.6660942472860611</v>
+        <v>0.2478329361908713</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3160818728764525</v>
+        <v>1.014785235588732</v>
       </c>
       <c r="L24">
-        <v>0.214648857751996</v>
+        <v>0.2079176450629632</v>
       </c>
       <c r="M24">
-        <v>0.1476990144628907</v>
+        <v>0.269050939879854</v>
       </c>
       <c r="N24">
-        <v>1.566322088038412</v>
+        <v>0.7545847935339118</v>
       </c>
       <c r="O24">
-        <v>2.286355743269652</v>
+        <v>0.9453176820165794</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4156716883908871</v>
+        <v>0.9870826329559463</v>
       </c>
       <c r="C25">
-        <v>0.1881289775726103</v>
+        <v>0.1102982515242772</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1333131119606215</v>
+        <v>0.0614884172202359</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.5092800319689914</v>
+        <v>0.2350470154287549</v>
       </c>
       <c r="H25">
-        <v>0.6664437480636138</v>
+        <v>0.2424743667106597</v>
       </c>
       <c r="I25">
-        <v>0.6766514041382976</v>
+        <v>0.2587104144071724</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2606589324958009</v>
+        <v>0.8388160711430714</v>
       </c>
       <c r="L25">
-        <v>0.208474410146124</v>
+        <v>0.1783217653961273</v>
       </c>
       <c r="M25">
-        <v>0.1345558725811351</v>
+        <v>0.2217213454104119</v>
       </c>
       <c r="N25">
-        <v>1.587894486345402</v>
+        <v>0.8010353190999773</v>
       </c>
       <c r="O25">
-        <v>2.31717397553777</v>
+        <v>0.9541855189414719</v>
       </c>
     </row>
   </sheetData>
